--- a/pipeline_comp_meta.xlsx
+++ b/pipeline_comp_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cm/JPL_Google_Drive/hbcu_data_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cm/JPL_Google_Drive/JPL HBCU Internship 2020/jpl_bioinfo_internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4295EB-D0D6-E04B-8F53-85D038FDCF12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC9A06-A6DB-254B-B9E4-1BC0C30677B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="8160" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -64,51 +64,21 @@
     <t>ML_uneven_perfect_sim</t>
   </si>
   <si>
-    <t>sample1_k2</t>
-  </si>
-  <si>
-    <t>kraken2</t>
-  </si>
-  <si>
     <t>Zymo_mmc_05_1_undil</t>
   </si>
   <si>
-    <t>sample2_k2</t>
-  </si>
-  <si>
     <t>Zymo_mmc_05_2_undil</t>
   </si>
   <si>
-    <t>sample3_k2</t>
-  </si>
-  <si>
     <t>Zymo_mmc_05_1_undilcopy</t>
   </si>
   <si>
-    <t>sample4_k2</t>
-  </si>
-  <si>
     <t>Zymo_mmc_06_1_diluted</t>
   </si>
   <si>
-    <t>sample5_k2</t>
-  </si>
-  <si>
-    <t>sample6_k2</t>
-  </si>
-  <si>
-    <t>sample7_k2</t>
-  </si>
-  <si>
-    <t>sample8_k2</t>
-  </si>
-  <si>
     <t>sample1_br</t>
   </si>
   <si>
-    <t>bracken</t>
-  </si>
-  <si>
     <t>sample2_br</t>
   </si>
   <si>
@@ -133,9 +103,6 @@
     <t>sample1_gan</t>
   </si>
   <si>
-    <t>ganon</t>
-  </si>
-  <si>
     <t>sample2_gan</t>
   </si>
   <si>
@@ -160,9 +127,6 @@
     <t>sample1_cent</t>
   </si>
   <si>
-    <t>centrifuge</t>
-  </si>
-  <si>
     <t>sample2_cent</t>
   </si>
   <si>
@@ -188,12 +152,24 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Ganon</t>
+  </si>
+  <si>
+    <t>K2-Bracken</t>
+  </si>
+  <si>
+    <t>Centrifuge</t>
+  </si>
+  <si>
+    <t>MMC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1027,11 +1003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,16 +1099,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>4283096</v>
@@ -1140,16 +1116,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="E7">
         <v>4327888</v>
@@ -1157,16 +1133,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>4283096</v>
@@ -1180,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>5270348</v>
@@ -1191,13 +1167,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1208,13 +1184,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1225,13 +1201,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1242,13 +1218,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1259,16 +1235,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>4283096</v>
@@ -1276,16 +1252,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>4327888</v>
@@ -1293,16 +1269,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>4283096</v>
@@ -1310,16 +1286,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>5270348</v>
@@ -1327,13 +1303,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1344,13 +1320,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1361,13 +1337,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1378,13 +1354,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1395,16 +1371,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>4283096</v>
@@ -1412,16 +1388,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>4327888</v>
@@ -1429,16 +1405,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>4283096</v>
@@ -1446,16 +1422,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>5270348</v>
@@ -1463,13 +1439,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1480,13 +1456,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1497,13 +1473,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -1514,13 +1490,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1531,155 +1507,19 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>4283096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31">
-        <v>4327888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>4283096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>5270348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>4998731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>4998731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <v>4998734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>4998734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
